--- a/data/trans_camb/POLIPATOLOGIA_Lim_5-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_5-Estudios-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.179445493924675</v>
+        <v>-4.131848903482426</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.785555121253593</v>
+        <v>6.659198711536241</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.773064409029657</v>
+        <v>-2.648024505108908</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11.70173015061347</v>
+        <v>12.10499662841291</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.476244389324741</v>
+        <v>-2.723587370465864</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>10.87053757896179</v>
+        <v>10.84451018040437</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.57295047006471</v>
+        <v>1.395401783886613</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.9813286883185</v>
+        <v>13.84759103752274</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.284752385872602</v>
+        <v>4.011486643245926</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.60171020277814</v>
+        <v>19.14106377431943</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.035404696106962</v>
+        <v>2.138040907037821</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>15.85294030119442</v>
+        <v>15.87248497390632</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3820081399452492</v>
+        <v>-0.3848277946486569</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.6231083723904834</v>
+        <v>0.5915677482869074</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1340566928265961</v>
+        <v>-0.1353111425888447</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.5804410339623719</v>
+        <v>0.5755643984275267</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1574277306476326</v>
+        <v>-0.1695797190856355</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6597456184528311</v>
+        <v>0.6725528350196064</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2097454724122203</v>
+        <v>0.1722714030432469</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.782219283801048</v>
+        <v>1.723580724079034</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2366721213594553</v>
+        <v>0.220931098433108</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.079325528863676</v>
+        <v>1.095334256003782</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1468224173356168</v>
+        <v>0.1491663578817764</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.139171777596246</v>
+        <v>1.158078181931697</v>
       </c>
     </row>
     <row r="10">
@@ -778,7 +778,7 @@
         <v>1.624120696607756</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.512847441046135</v>
+        <v>6.512847441046132</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>1.03563799782673</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2990834305526772</v>
+        <v>-0.2931839803360327</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.900582594013814</v>
+        <v>2.890804525297009</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1963091344547799</v>
+        <v>0.2260373536735246</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.183275427072068</v>
+        <v>5.09038422456006</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2329449700963686</v>
+        <v>0.2541237645764909</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.360932978658381</v>
+        <v>4.364710163757354</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.15738295857288</v>
+        <v>1.218916725475607</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.990185856536917</v>
+        <v>4.97508327533658</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.117475678498054</v>
+        <v>3.041967618241461</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.966513526103919</v>
+        <v>7.950745295846111</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.823192928356435</v>
+        <v>1.860179013536806</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.128607202501447</v>
+        <v>6.12410265544238</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2163787247103469</v>
+        <v>-0.2054197383909732</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1.562498774816255</v>
+        <v>1.64966036009248</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.02968682671579049</v>
+        <v>0.04492574374171397</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1.161762579479158</v>
+        <v>1.133994160538824</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07536582691035544</v>
+        <v>0.08484355628496318</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.474460700722545</v>
+        <v>1.482911611076683</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.159660917899007</v>
+        <v>1.355680549078454</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5.051882180654836</v>
+        <v>5.120523742538484</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.037276697961132</v>
+        <v>1.053305786676168</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.820066774577019</v>
+        <v>2.799568527762928</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8657446971576582</v>
+        <v>0.9342585663836102</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.025609601407966</v>
+        <v>3.153978453243387</v>
       </c>
     </row>
     <row r="16">
@@ -938,7 +938,7 @@
         <v>0.4207607583819967</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.231717740359004</v>
+        <v>5.231717740359006</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.5812868265998962</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.060450003693048</v>
+        <v>-1.335636049595539</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.126239939633449</v>
+        <v>-0.8638222006077433</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.699680200311285</v>
+        <v>-1.888239355531067</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.755687539284766</v>
+        <v>2.7427603510991</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.8416785855296186</v>
+        <v>-0.7732110204432061</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.80649990469337</v>
+        <v>1.789970690339351</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.632913297673723</v>
+        <v>2.474591067230713</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.56261150963296</v>
+        <v>2.797334728171343</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.672060105809344</v>
+        <v>2.586699674816677</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.37791808210666</v>
+        <v>7.501913810632767</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.192812691296286</v>
+        <v>2.053064860525117</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.625231088895714</v>
+        <v>4.621192127288086</v>
       </c>
     </row>
     <row r="19">
@@ -1010,13 +1010,13 @@
         <v>0.5499929404172764</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.8977395556849638</v>
+        <v>0.8977395556849636</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.1650352013365316</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2.052039248945788</v>
+        <v>2.052039248945789</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3051772499657794</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5855115194965413</v>
+        <v>-0.630695874826058</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4751070850147865</v>
+        <v>-0.440854880000539</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4981686526909586</v>
+        <v>-0.5194320544075365</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.5878571714169641</v>
+        <v>0.6105787612176271</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3329963936574521</v>
+        <v>-0.3058011030538527</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5459942807320175</v>
+        <v>0.5714030790073656</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>6.317043547153173</v>
+        <v>6.611520184277507</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>5.622201185651877</v>
+        <v>7.543870327454554</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.906373246007349</v>
+        <v>1.813151453566282</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>5.292657421997291</v>
+        <v>5.39019178037769</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.87775542461942</v>
+        <v>1.8930810630908</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>4.027132443252415</v>
+        <v>4.104258550309968</v>
       </c>
     </row>
     <row r="22">
@@ -1092,7 +1092,7 @@
         <v>-0.4354985046104237</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>3.411787806521269</v>
+        <v>3.411787806521271</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-0.3211818441195183</v>
@@ -1104,7 +1104,7 @@
         <v>-0.3682734544062989</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.637338598249366</v>
+        <v>4.637338598249367</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.323775077737884</v>
+        <v>-1.307390855497592</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.373270056928705</v>
+        <v>2.450223015968628</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.650354853013038</v>
+        <v>-1.774350718101199</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.347739842331753</v>
+        <v>4.290213939533754</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.320603898386834</v>
+        <v>-1.270275719802848</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.796817988342791</v>
+        <v>3.777511641617505</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4669582305127192</v>
+        <v>0.4246083970460157</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.577639634834058</v>
+        <v>4.487428878114681</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.076919707991879</v>
+        <v>1.119197409634002</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.131469100762891</v>
+        <v>7.010910303940059</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4873496867097646</v>
+        <v>0.435501454794629</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.453695573953214</v>
+        <v>5.532610431864291</v>
       </c>
     </row>
     <row r="25">
@@ -1170,7 +1170,7 @@
         <v>-0.1217685991694982</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.9539610755616956</v>
+        <v>0.953961075561696</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.03458895314228144</v>
@@ -1182,7 +1182,7 @@
         <v>-0.05677893630906399</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.714966419010681</v>
+        <v>0.7149664190106813</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3180665966142537</v>
+        <v>-0.3346013952727172</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.5577155427046115</v>
+        <v>0.5824117577287432</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1661675865237413</v>
+        <v>-0.182281806051096</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.4324078367058685</v>
+        <v>0.4133591411823651</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1892999618697238</v>
+        <v>-0.1859423415988277</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5384875565546872</v>
+        <v>0.5285939719031992</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1545575263659155</v>
+        <v>0.1294206518980725</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.455821602820874</v>
+        <v>1.398183124577715</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1259506716905521</v>
+        <v>0.1315950341587416</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8466381549825807</v>
+        <v>0.8243060769079062</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.08326430656953646</v>
+        <v>0.07253759825824381</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9011439228319785</v>
+        <v>0.8982765513352764</v>
       </c>
     </row>
     <row r="28">
